--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cressanda Solution Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cressanda Solution Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.908125</v>
+        <v>1.91</v>
       </c>
       <c r="I8">
         <v>-3.01</v>
@@ -1353,16 +1353,16 @@
         <v>-3.09</v>
       </c>
       <c r="M8">
-        <v>10.30882352941176</v>
+        <v>10.31</v>
       </c>
       <c r="N8">
-        <v>4.881764705882353</v>
+        <v>4.88</v>
       </c>
       <c r="O8">
-        <v>4.334117647058823</v>
+        <v>4.33</v>
       </c>
       <c r="P8">
-        <v>3.679999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="Q8">
         <v>-2142.3</v>
@@ -1377,7 +1377,7 @@
         <v>11.92</v>
       </c>
       <c r="U8">
-        <v>20.06764705882353</v>
+        <v>20.07</v>
       </c>
       <c r="V8">
         <v>0.37</v>
@@ -1386,7 +1386,7 @@
         <v>0.37</v>
       </c>
       <c r="X8">
-        <v>0.1014285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1395,31 +1395,31 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AB8">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AC8">
         <v>8.66</v>
       </c>
       <c r="AD8">
-        <v>280.4247058823529</v>
+        <v>280.42</v>
       </c>
       <c r="AE8">
         <v>-3.2</v>
       </c>
       <c r="AF8">
-        <v>284.0452941176471</v>
+        <v>284.05</v>
       </c>
       <c r="AG8">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AH8">
         <v>55.14</v>
       </c>
       <c r="AI8">
-        <v>287.1088235294117</v>
+        <v>287.11</v>
       </c>
       <c r="AJ8">
         <v>-0.39</v>
@@ -1594,7 +1594,7 @@
         <v>0.74</v>
       </c>
       <c r="T10">
-        <v>2.217142857142858</v>
+        <v>2.22</v>
       </c>
       <c r="U10">
         <v>1.83</v>
@@ -1642,7 +1642,7 @@
         <v>1250.03</v>
       </c>
       <c r="AJ10">
-        <v>-0.05142857142857143</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1704,7 +1704,7 @@
         <v>-2.68</v>
       </c>
       <c r="T11">
-        <v>2.217142857142858</v>
+        <v>2.22</v>
       </c>
       <c r="U11">
         <v>12</v>
@@ -1716,7 +1716,7 @@
         <v>1.22</v>
       </c>
       <c r="X11">
-        <v>0.1014285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AB11">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AC11">
         <v>1671.01</v>
@@ -1743,7 +1743,7 @@
         <v>259.4</v>
       </c>
       <c r="AG11">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AH11">
         <v>56.57</v>
@@ -1752,7 +1752,7 @@
         <v>259.43</v>
       </c>
       <c r="AJ11">
-        <v>-0.05142857142857143</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1766,7 +1766,7 @@
         <v>-0.01</v>
       </c>
       <c r="D12">
-        <v>-0.2294117647058823</v>
+        <v>-0.23</v>
       </c>
       <c r="E12">
         <v>0.98</v>
@@ -1778,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.908125</v>
+        <v>1.91</v>
       </c>
       <c r="I12">
-        <v>-0.1976470588235294</v>
+        <v>-0.2</v>
       </c>
       <c r="J12">
         <v>-0.01</v>
@@ -1793,16 +1793,16 @@
         <v>-0.01</v>
       </c>
       <c r="M12">
-        <v>10.30882352941176</v>
+        <v>10.31</v>
       </c>
       <c r="N12">
-        <v>4.881764705882353</v>
+        <v>4.88</v>
       </c>
       <c r="O12">
-        <v>4.334117647058823</v>
+        <v>4.33</v>
       </c>
       <c r="P12">
-        <v>3.679999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="Q12">
         <v>-0.51</v>
@@ -1814,10 +1814,10 @@
         <v>-0.5</v>
       </c>
       <c r="T12">
-        <v>2.217142857142858</v>
+        <v>2.22</v>
       </c>
       <c r="U12">
-        <v>20.06764705882353</v>
+        <v>20.07</v>
       </c>
       <c r="V12">
         <v>3.06</v>
@@ -1826,7 +1826,7 @@
         <v>3.06</v>
       </c>
       <c r="X12">
-        <v>0.1014285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1835,34 +1835,34 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AB12">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AC12">
         <v>283.62</v>
       </c>
       <c r="AD12">
-        <v>280.4247058823529</v>
+        <v>280.42</v>
       </c>
       <c r="AE12">
         <v>-2004.37</v>
       </c>
       <c r="AF12">
-        <v>284.0452941176471</v>
+        <v>284.05</v>
       </c>
       <c r="AG12">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AH12">
         <v>9.550000000000001</v>
       </c>
       <c r="AI12">
-        <v>287.1088235294117</v>
+        <v>287.11</v>
       </c>
       <c r="AJ12">
-        <v>-0.05142857142857143</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -2090,13 +2090,13 @@
         <v>49</v>
       </c>
       <c r="B15">
-        <v>-0.4577777777777777</v>
+        <v>-0.46</v>
       </c>
       <c r="C15">
-        <v>-0.4577777777777777</v>
+        <v>-0.46</v>
       </c>
       <c r="D15">
-        <v>-0.2294117647058823</v>
+        <v>-0.23</v>
       </c>
       <c r="E15">
         <v>0.8</v>
@@ -2108,31 +2108,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.908125</v>
+        <v>1.91</v>
       </c>
       <c r="I15">
-        <v>-0.1976470588235294</v>
+        <v>-0.2</v>
       </c>
       <c r="J15">
-        <v>-0.4044444444444444</v>
+        <v>-0.4</v>
       </c>
       <c r="K15">
-        <v>-0.4283333333333333</v>
+        <v>-0.43</v>
       </c>
       <c r="L15">
-        <v>-0.4333333333333333</v>
+        <v>-0.43</v>
       </c>
       <c r="M15">
-        <v>10.30882352941176</v>
+        <v>10.31</v>
       </c>
       <c r="N15">
-        <v>4.881764705882353</v>
+        <v>4.88</v>
       </c>
       <c r="O15">
-        <v>4.334117647058823</v>
+        <v>4.33</v>
       </c>
       <c r="P15">
-        <v>3.679999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="Q15">
         <v>-0.03</v>
@@ -2144,10 +2144,10 @@
         <v>-0.03</v>
       </c>
       <c r="T15">
-        <v>2.217142857142858</v>
+        <v>2.22</v>
       </c>
       <c r="U15">
-        <v>20.06764705882353</v>
+        <v>20.07</v>
       </c>
       <c r="V15">
         <v>6.84</v>
@@ -2156,7 +2156,7 @@
         <v>6.84</v>
       </c>
       <c r="X15">
-        <v>0.1014285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2165,34 +2165,34 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AB15">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AC15">
         <v>80.31999999999999</v>
       </c>
       <c r="AD15">
-        <v>280.4247058823529</v>
+        <v>280.42</v>
       </c>
       <c r="AE15">
         <v>-8562.219999999999</v>
       </c>
       <c r="AF15">
-        <v>284.0452941176471</v>
+        <v>284.05</v>
       </c>
       <c r="AG15">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AH15">
         <v>3.31</v>
       </c>
       <c r="AI15">
-        <v>287.1088235294117</v>
+        <v>287.11</v>
       </c>
       <c r="AJ15">
-        <v>-0.05142857142857143</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -2420,13 +2420,13 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>-0.4577777777777777</v>
+        <v>-0.46</v>
       </c>
       <c r="C18">
-        <v>-0.4577777777777777</v>
+        <v>-0.46</v>
       </c>
       <c r="D18">
-        <v>-0.2294117647058823</v>
+        <v>-0.23</v>
       </c>
       <c r="E18">
         <v>0.8</v>
@@ -2438,19 +2438,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.908125</v>
+        <v>1.91</v>
       </c>
       <c r="I18">
-        <v>-0.1976470588235294</v>
+        <v>-0.2</v>
       </c>
       <c r="J18">
-        <v>-0.4044444444444444</v>
+        <v>-0.4</v>
       </c>
       <c r="K18">
-        <v>-0.4283333333333333</v>
+        <v>-0.43</v>
       </c>
       <c r="L18">
-        <v>-0.4333333333333333</v>
+        <v>-0.43</v>
       </c>
       <c r="M18">
         <v>4.84</v>
@@ -2474,7 +2474,7 @@
         <v>0.01</v>
       </c>
       <c r="T18">
-        <v>2.217142857142858</v>
+        <v>2.22</v>
       </c>
       <c r="U18">
         <v>0.38</v>
@@ -2486,7 +2486,7 @@
         <v>5.46</v>
       </c>
       <c r="X18">
-        <v>0.1014285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2495,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AB18">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AC18">
         <v>14.73</v>
@@ -2513,7 +2513,7 @@
         <v>159.44</v>
       </c>
       <c r="AG18">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AH18">
         <v>0.62</v>
@@ -2522,7 +2522,7 @@
         <v>163.33</v>
       </c>
       <c r="AJ18">
-        <v>-0.05142857142857143</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2584,7 +2584,7 @@
         <v>0.65</v>
       </c>
       <c r="T19">
-        <v>2.217142857142858</v>
+        <v>2.22</v>
       </c>
       <c r="U19">
         <v>0.01</v>
@@ -2596,7 +2596,7 @@
         <v>352.07</v>
       </c>
       <c r="X19">
-        <v>0.1014285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AB19">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AC19">
         <v>565.83</v>
@@ -2623,7 +2623,7 @@
         <v>3126.13</v>
       </c>
       <c r="AG19">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="AH19">
         <v>14.07</v>
@@ -2632,7 +2632,7 @@
         <v>3171.67</v>
       </c>
       <c r="AJ19">
-        <v>-0.05142857142857143</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="20" spans="1:36">
